--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value453.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value453.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.274614635473047</v>
+        <v>0.8797850012779236</v>
       </c>
       <c r="B1">
-        <v>1.635113560008217</v>
+        <v>1.290532231330872</v>
       </c>
       <c r="C1">
-        <v>2.452786902137563</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>5.504321512101478</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>0.4506437479732864</v>
+        <v>1.656438112258911</v>
       </c>
     </row>
   </sheetData>
